--- a/t/test-data/stylish.xlsx
+++ b/t/test-data/stylish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vrurg/src/Raku/spreadsheet-xlsx/t/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C076A8-2C46-DC45-B2C6-B0717E6477D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2658BF-E33A-594D-9832-A9A0A7566016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28980" yWindow="2140" windowWidth="31900" windowHeight="23780" xr2:uid="{684AC051-B414-E348-986B-1FE37ABFDA0D}"/>
   </bookViews>
@@ -33,12 +33,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Foo</t>
   </si>
   <si>
     <t>Fubarish</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Italic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>Font</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -49,7 +102,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -69,6 +122,28 @@
       <color theme="1"/>
       <name val="Lucida Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -495,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D1EFC8-6FAA-D549-B76B-66DCB7D962C9}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,6 +611,11 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/t/test-data/stylish.xlsx
+++ b/t/test-data/stylish.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vrurg/src/Raku/spreadsheet-xlsx/t/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2658BF-E33A-594D-9832-A9A0A7566016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC40A5F-9453-5C4E-80D1-61B0C5620985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28980" yWindow="2140" windowWidth="31900" windowHeight="23780" xr2:uid="{684AC051-B414-E348-986B-1FE37ABFDA0D}"/>
+    <workbookView xWindow="25280" yWindow="3080" windowWidth="31900" windowHeight="23780" xr2:uid="{684AC051-B414-E348-986B-1FE37ABFDA0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="\₴#,###"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -238,7 +239,7 @@
       <alignment vertical="center" textRotation="12"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -250,6 +251,7 @@
       <alignment vertical="center" textRotation="12"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Fubar" xfId="1" xr:uid="{E7CB65CD-6E50-9B47-90AD-0E3F17F2428E}"/>
@@ -573,7 +575,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -607,7 +609,9 @@
       <c r="A4" s="8">
         <v>123.45677999999999</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="9">
+        <v>7890.1234560000003</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
